--- a/docs/Cs3450StandUps/Sprint3Cs3450.xlsx
+++ b/docs/Cs3450StandUps/Sprint3Cs3450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\Downloads\Cs3450StandUps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F88E1E2-1471-42AF-AD6A-F5754E4E5E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C130BB1-935E-4A4B-93CB-A637AB9FC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E7CBDC0-2583-4E3E-BF46-B249B2C3CDC7}"/>
   </bookViews>
@@ -438,7 +438,46 @@
                   <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.5</c:v>
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6C688B-EA2F-4CC3-9358-B6F441CFE84D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E19" si="0">(E3 - 2*$H$2)</f>
+        <f t="shared" ref="E4:E18" si="0">(E3 - 2*$H$2)</f>
         <v>39.590000000000003</v>
       </c>
       <c r="F4">
@@ -1673,7 +1712,7 @@
         <v>33.940000000000005</v>
       </c>
       <c r="F6">
-        <v>33.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,6 +1732,9 @@
         <f t="shared" si="0"/>
         <v>31.680000000000007</v>
       </c>
+      <c r="F7">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1711,6 +1753,9 @@
         <f>(E7 - 3*$H$2)</f>
         <v>28.290000000000006</v>
       </c>
+      <c r="F8">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1729,6 +1774,9 @@
         <f t="shared" si="0"/>
         <v>26.030000000000008</v>
       </c>
+      <c r="F9">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1737,6 +1785,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>21</v>
       </c>
@@ -1744,6 +1795,9 @@
         <f t="shared" si="0"/>
         <v>23.77000000000001</v>
       </c>
+      <c r="F10">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1752,6 +1806,9 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>24</v>
       </c>
@@ -1759,6 +1816,9 @@
         <f>(E10 - 3*$H$2)</f>
         <v>20.38000000000001</v>
       </c>
+      <c r="F11">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1767,6 +1827,9 @@
       <c r="B12">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12">
         <v>26</v>
       </c>
@@ -1774,6 +1837,9 @@
         <f t="shared" si="0"/>
         <v>18.120000000000012</v>
       </c>
+      <c r="F12">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1782,6 +1848,9 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
       <c r="D13">
         <v>28</v>
       </c>
@@ -1789,6 +1858,9 @@
         <f t="shared" si="0"/>
         <v>15.860000000000012</v>
       </c>
+      <c r="F13">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1804,6 +1876,9 @@
         <f>(E13 - 3*$H$2)</f>
         <v>12.470000000000013</v>
       </c>
+      <c r="F14">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1812,6 +1887,9 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
       <c r="D15">
         <v>33</v>
       </c>
@@ -1819,6 +1897,9 @@
         <f t="shared" si="0"/>
         <v>10.210000000000013</v>
       </c>
+      <c r="F15">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1827,6 +1908,9 @@
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
       <c r="D16">
         <v>35</v>
       </c>
@@ -1834,12 +1918,18 @@
         <f t="shared" si="0"/>
         <v>7.9500000000000135</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
@@ -1849,12 +1939,18 @@
         <f>(E16 - 3*$H$2)</f>
         <v>4.5600000000000138</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
@@ -1864,30 +1960,42 @@
         <f t="shared" si="0"/>
         <v>2.300000000000014</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="D19">
         <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1939,23 +2047,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1963,30 +2077,36 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>SUM(B2:B30)</f>
         <v>47.5</v>
       </c>
       <c r="C31">
-        <f>SUM(C2:C25)</f>
-        <v>14</v>
+        <f>SUM(C2:C30)</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
